--- a/articulosDelProyecto/articulo_TG1/8_datasets_n_images/busqueda2.xlsx
+++ b/articulosDelProyecto/articulo_TG1/8_datasets_n_images/busqueda2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\estadoDelArte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7310A768-0DAF-4D4B-AC10-A415FE103203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC8197-5A0A-4353-A32F-3B6EF2819352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{568549CF-94A4-4694-9C6D-E2D3511BD992}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{568549CF-94A4-4694-9C6D-E2D3511BD992}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -179,12 +179,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -227,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,6 +255,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,30 +574,30 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="A1:Q23"/>
+      <selection sqref="A1:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +650,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
@@ -690,8 +704,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4">
@@ -744,8 +758,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4">
@@ -798,8 +812,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
@@ -852,8 +866,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4">
@@ -906,8 +920,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4">
@@ -960,8 +974,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4">
@@ -1014,8 +1028,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4">
@@ -1068,8 +1082,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4">
@@ -1122,12 +1136,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="4">
-        <v>324</v>
+        <v>2497</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -1139,16 +1153,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
@@ -1166,77 +1180,77 @@
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <f>SUM(C11:P11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>463</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>SUM(C12:P12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>404</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4">
-        <v>463</v>
-      </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
@@ -1274,396 +1288,396 @@
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
         <v>0</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8370</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>SUM(C14:P14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4">
+        <v>999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>SUM(C15:P15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11787</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>SUM(C16:P16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12516</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>SUM(C17:P17)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>324</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>SUM(C18:P18)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B19" s="4">
         <v>625</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4">
-        <v>999</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2497</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>2</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B20" s="4">
         <v>7909</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8370</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4">
-        <v>11787</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>2</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>2</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4">
-        <v>12516</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4">
@@ -1716,8 +1730,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4">
@@ -1770,8 +1784,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4">
